--- a/Code/Results/Cases/Case_0_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.977841432696568</v>
+        <v>1.023668524355633</v>
       </c>
       <c r="D2">
-        <v>0.9929924798505143</v>
+        <v>1.033298432064749</v>
       </c>
       <c r="E2">
-        <v>0.9871662535418108</v>
+        <v>1.024233148787848</v>
       </c>
       <c r="F2">
-        <v>0.9997860105094256</v>
+        <v>1.041205138650722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045186314469892</v>
+        <v>1.026690890226896</v>
       </c>
       <c r="J2">
-        <v>1.000705723335172</v>
+        <v>1.028847451183388</v>
       </c>
       <c r="K2">
-        <v>1.004550311631503</v>
+        <v>1.03610118353107</v>
       </c>
       <c r="L2">
-        <v>0.998807326506155</v>
+        <v>1.027062251678982</v>
       </c>
       <c r="M2">
-        <v>1.011248327350595</v>
+        <v>1.043985313303571</v>
       </c>
       <c r="N2">
-        <v>1.003821513228121</v>
+        <v>1.013584193440138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9832261320005449</v>
+        <v>1.024805691979436</v>
       </c>
       <c r="D3">
-        <v>0.9978366315810951</v>
+        <v>1.034374192760211</v>
       </c>
       <c r="E3">
-        <v>0.9915177487364978</v>
+        <v>1.025204607911374</v>
       </c>
       <c r="F3">
-        <v>1.00500477482786</v>
+        <v>1.042348178194984</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045538646212628</v>
+        <v>1.026662920049573</v>
       </c>
       <c r="J3">
-        <v>1.0041847543912</v>
+        <v>1.029622223995774</v>
       </c>
       <c r="K3">
-        <v>1.008497268154264</v>
+        <v>1.036985183061081</v>
       </c>
       <c r="L3">
-        <v>1.002260324508835</v>
+        <v>1.027840311031423</v>
       </c>
       <c r="M3">
-        <v>1.015574016648301</v>
+        <v>1.044938059856766</v>
       </c>
       <c r="N3">
-        <v>1.005035284719318</v>
+        <v>1.013848126944308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9866318571409812</v>
+        <v>1.025541807101835</v>
       </c>
       <c r="D4">
-        <v>1.000905493355271</v>
+        <v>1.035070700469297</v>
       </c>
       <c r="E4">
-        <v>0.9942767365015468</v>
+        <v>1.025833788668838</v>
       </c>
       <c r="F4">
-        <v>1.008307201265527</v>
+        <v>1.043087701126899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045743183161043</v>
+        <v>1.026642424156548</v>
       </c>
       <c r="J4">
-        <v>1.00638381522457</v>
+        <v>1.030123340533146</v>
       </c>
       <c r="K4">
-        <v>1.010993002141735</v>
+        <v>1.037557017544349</v>
       </c>
       <c r="L4">
-        <v>1.004444730626211</v>
+        <v>1.028343737488784</v>
       </c>
       <c r="M4">
-        <v>1.018306389050769</v>
+        <v>1.045553872913479</v>
       </c>
       <c r="N4">
-        <v>1.005801514177546</v>
+        <v>1.014018644641665</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9880456283006803</v>
+        <v>1.025851340542747</v>
       </c>
       <c r="D5">
-        <v>1.002180569443682</v>
+        <v>1.035363612640163</v>
       </c>
       <c r="E5">
-        <v>0.9954235890176399</v>
+        <v>1.026098435507715</v>
       </c>
       <c r="F5">
-        <v>1.009678403335254</v>
+        <v>1.043398572538337</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045823604755389</v>
+        <v>1.026633232787293</v>
       </c>
       <c r="J5">
-        <v>1.007296305923652</v>
+        <v>1.030333959015028</v>
       </c>
       <c r="K5">
-        <v>1.012028806484006</v>
+        <v>1.037797375573707</v>
       </c>
       <c r="L5">
-        <v>1.00535156727622</v>
+        <v>1.028555370856397</v>
       </c>
       <c r="M5">
-        <v>1.019439698928311</v>
+        <v>1.045812598255217</v>
       </c>
       <c r="N5">
-        <v>1.006119211495956</v>
+        <v>1.014090266791144</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9882819739583104</v>
+        <v>1.025903316736159</v>
       </c>
       <c r="D6">
-        <v>1.002393794285929</v>
+        <v>1.035412799769255</v>
       </c>
       <c r="E6">
-        <v>0.9956154022474124</v>
+        <v>1.026142879041402</v>
       </c>
       <c r="F6">
-        <v>1.00990764849125</v>
+        <v>1.04345076780507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045836782814</v>
+        <v>1.02663165577525</v>
       </c>
       <c r="J6">
-        <v>1.007448827186028</v>
+        <v>1.03036931980382</v>
       </c>
       <c r="K6">
-        <v>1.012201951611915</v>
+        <v>1.037837730331142</v>
       </c>
       <c r="L6">
-        <v>1.005503168429424</v>
+        <v>1.028590904614558</v>
       </c>
       <c r="M6">
-        <v>1.019629100840382</v>
+        <v>1.045856029844551</v>
       </c>
       <c r="N6">
-        <v>1.006172299286548</v>
+        <v>1.014102288740146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9866508177001334</v>
+        <v>1.02554594282421</v>
       </c>
       <c r="D7">
-        <v>1.000922589394786</v>
+        <v>1.035074613981707</v>
       </c>
       <c r="E7">
-        <v>0.9942921112749635</v>
+        <v>1.025837324345739</v>
       </c>
       <c r="F7">
-        <v>1.00832558979295</v>
+        <v>1.043091855100463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045744279567474</v>
+        <v>1.026642303601218</v>
       </c>
       <c r="J7">
-        <v>1.006396054485713</v>
+        <v>1.03012615502748</v>
       </c>
       <c r="K7">
-        <v>1.011006894588005</v>
+        <v>1.037560229381878</v>
       </c>
       <c r="L7">
-        <v>1.004456892368665</v>
+        <v>1.028346565372095</v>
       </c>
       <c r="M7">
-        <v>1.018321592088387</v>
+        <v>1.045557330652883</v>
       </c>
       <c r="N7">
-        <v>1.005805776446624</v>
+        <v>1.014019601909893</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9796779791559428</v>
+        <v>1.024052775591263</v>
       </c>
       <c r="D8">
-        <v>0.9946435686179304</v>
+        <v>1.033661903823305</v>
       </c>
       <c r="E8">
-        <v>0.9886489493845785</v>
+        <v>1.024561337479824</v>
       </c>
       <c r="F8">
-        <v>1.00156556204798</v>
+        <v>1.041591454900157</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045310270745714</v>
+        <v>1.026681933373675</v>
       </c>
       <c r="J8">
-        <v>1.001892564693456</v>
+        <v>1.029109333533941</v>
       </c>
       <c r="K8">
-        <v>1.005896588383889</v>
+        <v>1.036399971033078</v>
       </c>
       <c r="L8">
-        <v>0.999984905328583</v>
+        <v>1.027325206722249</v>
       </c>
       <c r="M8">
-        <v>1.012724368480858</v>
+        <v>1.044307438640736</v>
       </c>
       <c r="N8">
-        <v>1.004235781107289</v>
+        <v>1.013673445819455</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9667505795302404</v>
+        <v>1.021423820390545</v>
       </c>
       <c r="D9">
-        <v>0.9830457858421467</v>
+        <v>1.03117572823494</v>
       </c>
       <c r="E9">
-        <v>0.9782439712758781</v>
+        <v>1.022317341476179</v>
       </c>
       <c r="F9">
-        <v>0.9890500780500027</v>
+        <v>1.038946793612392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044363595710445</v>
+        <v>1.026733447910888</v>
       </c>
       <c r="J9">
-        <v>0.9935346804051729</v>
+        <v>1.027315923508231</v>
       </c>
       <c r="K9">
-        <v>0.9964200560201043</v>
+        <v>1.034354124138841</v>
       </c>
       <c r="L9">
-        <v>0.991700170934571</v>
+        <v>1.025525209549109</v>
       </c>
       <c r="M9">
-        <v>1.002323344001956</v>
+        <v>1.04209978844082</v>
       </c>
       <c r="N9">
-        <v>1.001314695507788</v>
+        <v>1.013061448223862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9576428679370954</v>
+        <v>1.019672605538829</v>
       </c>
       <c r="D10">
-        <v>0.974908956325455</v>
+        <v>1.029520418090541</v>
       </c>
       <c r="E10">
-        <v>0.9709572416503442</v>
+        <v>1.020824337628465</v>
       </c>
       <c r="F10">
-        <v>0.9802506050314113</v>
+        <v>1.037183170966654</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043606564373641</v>
+        <v>1.026755531297127</v>
       </c>
       <c r="J10">
-        <v>0.9876440032933682</v>
+        <v>1.026119201232412</v>
       </c>
       <c r="K10">
-        <v>0.9897465129228219</v>
+        <v>1.032989328321303</v>
       </c>
       <c r="L10">
-        <v>0.9858714473250313</v>
+        <v>1.024325047967675</v>
       </c>
       <c r="M10">
-        <v>0.994985837420078</v>
+        <v>1.040624547530097</v>
       </c>
       <c r="N10">
-        <v>0.9992516070426856</v>
+        <v>1.012652090106604</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9535684089516371</v>
+        <v>1.018914634472028</v>
       </c>
       <c r="D11">
-        <v>0.9712780927693935</v>
+        <v>1.028804154604117</v>
       </c>
       <c r="E11">
-        <v>0.9677090628967139</v>
+        <v>1.020178559035151</v>
       </c>
       <c r="F11">
-        <v>0.9763198283913336</v>
+        <v>1.036419379170392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043247977466223</v>
+        <v>1.026762197512319</v>
       </c>
       <c r="J11">
-        <v>0.9850090244808148</v>
+        <v>1.025600739100134</v>
       </c>
       <c r="K11">
-        <v>0.9867627793491197</v>
+        <v>1.032398140962829</v>
       </c>
       <c r="L11">
-        <v>0.983266759809876</v>
+        <v>1.023805323634868</v>
       </c>
       <c r="M11">
-        <v>0.991702574997505</v>
+        <v>1.039984928713302</v>
       </c>
       <c r="N11">
-        <v>0.9983279072677597</v>
+        <v>1.012474511263634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9520339515814639</v>
+        <v>1.01863313660767</v>
       </c>
       <c r="D12">
-        <v>0.9699121925552064</v>
+        <v>1.02853817666281</v>
       </c>
       <c r="E12">
-        <v>0.9664876476355888</v>
+        <v>1.019938793343725</v>
       </c>
       <c r="F12">
-        <v>0.9748404896418252</v>
+        <v>1.036135652849299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04311006916513</v>
+        <v>1.026764239446237</v>
       </c>
       <c r="J12">
-        <v>0.9840168028765235</v>
+        <v>1.025408117690654</v>
       </c>
       <c r="K12">
-        <v>0.9856394567634988</v>
+        <v>1.032178513994378</v>
       </c>
       <c r="L12">
-        <v>0.9822863425691806</v>
+        <v>1.02361226760583</v>
       </c>
       <c r="M12">
-        <v>0.9904661188211479</v>
+        <v>1.039747221068975</v>
       </c>
       <c r="N12">
-        <v>0.9979799676819708</v>
+        <v>1.012408501866185</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9523640726462427</v>
+        <v>1.018693516777726</v>
       </c>
       <c r="D13">
-        <v>0.970205981044106</v>
+        <v>1.028595226482732</v>
       </c>
       <c r="E13">
-        <v>0.9667503352606451</v>
+        <v>1.019990219140128</v>
       </c>
       <c r="F13">
-        <v>0.9751587047577887</v>
+        <v>1.036196514019644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043139865742142</v>
+        <v>1.026763821078379</v>
       </c>
       <c r="J13">
-        <v>0.9842302612773735</v>
+        <v>1.025449437520764</v>
       </c>
       <c r="K13">
-        <v>0.9858811088036282</v>
+        <v>1.03222562625342</v>
       </c>
       <c r="L13">
-        <v>0.9824972433231053</v>
+        <v>1.023653679113154</v>
       </c>
       <c r="M13">
-        <v>0.9907321244157452</v>
+        <v>1.039798215811438</v>
       </c>
       <c r="N13">
-        <v>0.9980548254177312</v>
+        <v>1.0124226633105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9534420074669322</v>
+        <v>1.018891364832479</v>
       </c>
       <c r="D14">
-        <v>0.9711655451887298</v>
+        <v>1.028782167273104</v>
       </c>
       <c r="E14">
-        <v>0.9676084098762952</v>
+        <v>1.020158737782921</v>
       </c>
       <c r="F14">
-        <v>0.9761979460382226</v>
+        <v>1.036395926674612</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043236674606085</v>
+        <v>1.026762375151495</v>
       </c>
       <c r="J14">
-        <v>0.9849272869259171</v>
+        <v>1.025584817803023</v>
       </c>
       <c r="K14">
-        <v>0.9866702372768477</v>
+        <v>1.032379987217774</v>
       </c>
       <c r="L14">
-        <v>0.9831859865315554</v>
+        <v>1.023789365713313</v>
       </c>
       <c r="M14">
-        <v>0.9916007199358048</v>
+        <v>1.03996528227031</v>
       </c>
       <c r="N14">
-        <v>0.9982992468010135</v>
+        <v>1.012469055900005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9541033298098911</v>
+        <v>1.0190132716528</v>
       </c>
       <c r="D15">
-        <v>0.9717544466588747</v>
+        <v>1.028897357484743</v>
       </c>
       <c r="E15">
-        <v>0.9681350948481277</v>
+        <v>1.02026258161799</v>
       </c>
       <c r="F15">
-        <v>0.9768356665142598</v>
+        <v>1.036518788728925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043295694441732</v>
+        <v>1.026761426759896</v>
       </c>
       <c r="J15">
-        <v>0.985354936636471</v>
+        <v>1.025668224553338</v>
       </c>
       <c r="K15">
-        <v>0.9871544253058511</v>
+        <v>1.032475089631751</v>
       </c>
       <c r="L15">
-        <v>0.9836086074332191</v>
+        <v>1.023872965733616</v>
       </c>
       <c r="M15">
-        <v>0.9921336196135015</v>
+        <v>1.040068200898373</v>
       </c>
       <c r="N15">
-        <v>0.998449193425335</v>
+        <v>1.012497633450596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9579104066631342</v>
+        <v>1.019722916147193</v>
       </c>
       <c r="D16">
-        <v>0.9751475688283183</v>
+        <v>1.029567964569007</v>
       </c>
       <c r="E16">
-        <v>0.9711707762095725</v>
+        <v>1.020867210596486</v>
       </c>
       <c r="F16">
-        <v>0.9805088409844399</v>
+        <v>1.037233858517602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043629706648901</v>
+        <v>1.026755027943447</v>
       </c>
       <c r="J16">
-        <v>0.9878170348652735</v>
+        <v>1.02615360406037</v>
       </c>
       <c r="K16">
-        <v>0.9899424768483659</v>
+        <v>1.033028558777702</v>
       </c>
       <c r="L16">
-        <v>0.9860425442453447</v>
+        <v>1.024359539356406</v>
       </c>
       <c r="M16">
-        <v>0.9952014209798513</v>
+        <v>1.040666979436045</v>
       </c>
       <c r="N16">
-        <v>0.9993122472821983</v>
+        <v>1.012663868599999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9602625431660128</v>
+        <v>1.020168141273774</v>
       </c>
       <c r="D17">
-        <v>0.9772464562137761</v>
+        <v>1.029988751369867</v>
       </c>
       <c r="E17">
-        <v>0.9730494553990827</v>
+        <v>1.021246666148032</v>
       </c>
       <c r="F17">
-        <v>0.9827798626624376</v>
+        <v>1.037682367491234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043830921626379</v>
+        <v>1.026750239424003</v>
       </c>
       <c r="J17">
-        <v>0.9893383295264587</v>
+        <v>1.026457996298825</v>
       </c>
       <c r="K17">
-        <v>0.9916655566505085</v>
+        <v>1.033375675736895</v>
       </c>
       <c r="L17">
-        <v>0.9875471234294878</v>
+        <v>1.024664741493466</v>
       </c>
       <c r="M17">
-        <v>0.9970967137978805</v>
+        <v>1.041042355191258</v>
       </c>
       <c r="N17">
-        <v>0.9998453015585964</v>
+        <v>1.012768056739419</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9616219874286984</v>
+        <v>1.020427864178542</v>
       </c>
       <c r="D18">
-        <v>0.9784604008681932</v>
+        <v>1.030234237147057</v>
       </c>
       <c r="E18">
-        <v>0.9741363530236197</v>
+        <v>1.021468063892147</v>
       </c>
       <c r="F18">
-        <v>0.9840929638114</v>
+        <v>1.037943962513196</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043945322737151</v>
+        <v>1.026747166876285</v>
       </c>
       <c r="J18">
-        <v>0.9902176018905815</v>
+        <v>1.026635516780729</v>
       </c>
       <c r="K18">
-        <v>0.9926615908300191</v>
+        <v>1.033578121812653</v>
       </c>
       <c r="L18">
-        <v>0.9884169779162078</v>
+        <v>1.024842756274537</v>
       </c>
       <c r="M18">
-        <v>0.9981920412555517</v>
+        <v>1.041261225463077</v>
       </c>
       <c r="N18">
-        <v>1.000153312646856</v>
+        <v>1.012828796651083</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9620834394935528</v>
+        <v>1.020516428208068</v>
       </c>
       <c r="D19">
-        <v>0.9788726085972876</v>
+        <v>1.030317949599936</v>
       </c>
       <c r="E19">
-        <v>0.9745054736416573</v>
+        <v>1.021543566298284</v>
       </c>
       <c r="F19">
-        <v>0.9845387724225455</v>
+        <v>1.038033157514037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04398383031451</v>
+        <v>1.026746071783743</v>
       </c>
       <c r="J19">
-        <v>0.9905160652206445</v>
+        <v>1.026696042218418</v>
       </c>
       <c r="K19">
-        <v>0.992999710772922</v>
+        <v>1.033647147077869</v>
       </c>
       <c r="L19">
-        <v>0.9887122853763569</v>
+        <v>1.024903453966647</v>
       </c>
       <c r="M19">
-        <v>0.9985638235974081</v>
+        <v>1.041335840993055</v>
       </c>
       <c r="N19">
-        <v>1.000257850738053</v>
+        <v>1.012849502088397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9600114854476165</v>
+        <v>1.020120369672549</v>
       </c>
       <c r="D20">
-        <v>0.9770223384059218</v>
+        <v>1.029943599971018</v>
       </c>
       <c r="E20">
-        <v>0.9728488183585616</v>
+        <v>1.02120594715322</v>
       </c>
       <c r="F20">
-        <v>0.9825374060110657</v>
+        <v>1.037634248035736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04380964037122</v>
+        <v>1.026750782088746</v>
       </c>
       <c r="J20">
-        <v>0.9891759496836612</v>
+        <v>1.026425340621756</v>
       </c>
       <c r="K20">
-        <v>0.9914816246197472</v>
+        <v>1.033338435585365</v>
       </c>
       <c r="L20">
-        <v>0.9873865024386415</v>
+        <v>1.024631996656058</v>
       </c>
       <c r="M20">
-        <v>0.9968944249501359</v>
+        <v>1.04100208920608</v>
       </c>
       <c r="N20">
-        <v>0.9997884128248106</v>
+        <v>1.012756881572308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9531251745147351</v>
+        <v>1.018833102242169</v>
       </c>
       <c r="D21">
-        <v>0.9708834623664727</v>
+        <v>1.028727115824554</v>
       </c>
       <c r="E21">
-        <v>0.9673561473768084</v>
+        <v>1.020109110339748</v>
       </c>
       <c r="F21">
-        <v>0.9758924572643244</v>
+        <v>1.036337205173399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04320829766019</v>
+        <v>1.026762812919656</v>
       </c>
       <c r="J21">
-        <v>0.9847224090443101</v>
+        <v>1.025544952832684</v>
       </c>
       <c r="K21">
-        <v>0.9864382811792272</v>
+        <v>1.032334532693093</v>
       </c>
       <c r="L21">
-        <v>0.9829835320856962</v>
+        <v>1.023749409594542</v>
       </c>
       <c r="M21">
-        <v>0.9913454151151815</v>
+        <v>1.039916088806156</v>
       </c>
       <c r="N21">
-        <v>0.9982274066215002</v>
+        <v>1.012455395783456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9486730763185555</v>
+        <v>1.018024013616803</v>
       </c>
       <c r="D22">
-        <v>0.9669233832105957</v>
+        <v>1.027962693101828</v>
       </c>
       <c r="E22">
-        <v>0.9638159776918922</v>
+        <v>1.019420094225628</v>
       </c>
       <c r="F22">
-        <v>0.9716023532994164</v>
+        <v>1.035521586759796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042802891222829</v>
+        <v>1.026767865498438</v>
       </c>
       <c r="J22">
-        <v>0.9818438845130099</v>
+        <v>1.024991177845222</v>
       </c>
       <c r="K22">
-        <v>0.9831798600337109</v>
+        <v>1.031703144176385</v>
       </c>
       <c r="L22">
-        <v>0.9801400200710988</v>
+        <v>1.023194449864697</v>
       </c>
       <c r="M22">
-        <v>0.9877581738647717</v>
+        <v>1.039232555522422</v>
       </c>
       <c r="N22">
-        <v>0.9972178048606533</v>
+        <v>1.012265557879299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9510453129435363</v>
+        <v>1.018452901855319</v>
       </c>
       <c r="D23">
-        <v>0.9690325898962943</v>
+        <v>1.028367887513426</v>
       </c>
       <c r="E23">
-        <v>0.9657012390328312</v>
+        <v>1.019785297080056</v>
       </c>
       <c r="F23">
-        <v>0.9738876653810893</v>
+        <v>1.03595397261026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043020425778312</v>
+        <v>1.026765424811429</v>
       </c>
       <c r="J23">
-        <v>0.9833775668852592</v>
+        <v>1.025284767350189</v>
       </c>
       <c r="K23">
-        <v>0.9849158241668616</v>
+        <v>1.032037873767386</v>
       </c>
       <c r="L23">
-        <v>0.9816548250516712</v>
+        <v>1.023488648617408</v>
       </c>
       <c r="M23">
-        <v>0.9896695080467478</v>
+        <v>1.039594977886888</v>
       </c>
       <c r="N23">
-        <v>0.9977557785548572</v>
+        <v>1.012366221264578</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9601249662041692</v>
+        <v>1.020141955507828</v>
       </c>
       <c r="D24">
-        <v>0.9771236393499407</v>
+        <v>1.029964001796204</v>
       </c>
       <c r="E24">
-        <v>0.9729395050492766</v>
+        <v>1.021224346104748</v>
       </c>
       <c r="F24">
-        <v>0.9826469973348471</v>
+        <v>1.037655991185263</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043819265608155</v>
+        <v>1.026750537745551</v>
       </c>
       <c r="J24">
-        <v>0.9892493470335815</v>
+        <v>1.026440096397809</v>
       </c>
       <c r="K24">
-        <v>0.9915647633617587</v>
+        <v>1.033355262872663</v>
       </c>
       <c r="L24">
-        <v>0.9874591040155918</v>
+        <v>1.024646792652193</v>
       </c>
       <c r="M24">
-        <v>0.9969858619139573</v>
+        <v>1.041020283918662</v>
       </c>
       <c r="N24">
-        <v>0.9998141273689146</v>
+        <v>1.012761931245851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9701742827982348</v>
+        <v>1.022103213693989</v>
       </c>
       <c r="D25">
-        <v>0.9861118493525056</v>
+        <v>1.031818086138188</v>
       </c>
       <c r="E25">
-        <v>0.9809924809879509</v>
+        <v>1.022896940423851</v>
       </c>
       <c r="F25">
-        <v>0.9923620604394979</v>
+        <v>1.039630592632542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044630240882913</v>
+        <v>1.026722295101752</v>
       </c>
       <c r="J25">
-        <v>0.9957488490368276</v>
+        <v>1.027779758693215</v>
       </c>
       <c r="K25">
-        <v>0.9989296561100095</v>
+        <v>1.034883182254064</v>
       </c>
       <c r="L25">
-        <v>0.9938932093014651</v>
+        <v>1.025990580256047</v>
       </c>
       <c r="M25">
-        <v>1.005080114155972</v>
+        <v>1.042671131915277</v>
       </c>
       <c r="N25">
-        <v>1.002089338284131</v>
+        <v>1.013219904122195</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023668524355633</v>
+        <v>0.9778414326965674</v>
       </c>
       <c r="D2">
-        <v>1.033298432064749</v>
+        <v>0.9929924798505139</v>
       </c>
       <c r="E2">
-        <v>1.024233148787848</v>
+        <v>0.9871662535418108</v>
       </c>
       <c r="F2">
-        <v>1.041205138650722</v>
+        <v>0.9997860105094252</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026690890226896</v>
+        <v>1.045186314469892</v>
       </c>
       <c r="J2">
-        <v>1.028847451183388</v>
+        <v>1.000705723335172</v>
       </c>
       <c r="K2">
-        <v>1.03610118353107</v>
+        <v>1.004550311631503</v>
       </c>
       <c r="L2">
-        <v>1.027062251678982</v>
+        <v>0.998807326506155</v>
       </c>
       <c r="M2">
-        <v>1.043985313303571</v>
+        <v>1.011248327350595</v>
       </c>
       <c r="N2">
-        <v>1.013584193440138</v>
+        <v>1.00382151322812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024805691979436</v>
+        <v>0.9832261320005451</v>
       </c>
       <c r="D3">
-        <v>1.034374192760211</v>
+        <v>0.9978366315810949</v>
       </c>
       <c r="E3">
-        <v>1.025204607911374</v>
+        <v>0.9915177487364978</v>
       </c>
       <c r="F3">
-        <v>1.042348178194984</v>
+        <v>1.00500477482786</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026662920049573</v>
+        <v>1.045538646212628</v>
       </c>
       <c r="J3">
-        <v>1.029622223995774</v>
+        <v>1.0041847543912</v>
       </c>
       <c r="K3">
-        <v>1.036985183061081</v>
+        <v>1.008497268154263</v>
       </c>
       <c r="L3">
-        <v>1.027840311031423</v>
+        <v>1.002260324508835</v>
       </c>
       <c r="M3">
-        <v>1.044938059856766</v>
+        <v>1.015574016648301</v>
       </c>
       <c r="N3">
-        <v>1.013848126944308</v>
+        <v>1.005035284719318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025541807101835</v>
+        <v>0.9866318571409803</v>
       </c>
       <c r="D4">
-        <v>1.035070700469297</v>
+        <v>1.000905493355271</v>
       </c>
       <c r="E4">
-        <v>1.025833788668838</v>
+        <v>0.9942767365015456</v>
       </c>
       <c r="F4">
-        <v>1.043087701126899</v>
+        <v>1.008307201265526</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026642424156548</v>
+        <v>1.045743183161043</v>
       </c>
       <c r="J4">
-        <v>1.030123340533146</v>
+        <v>1.006383815224569</v>
       </c>
       <c r="K4">
-        <v>1.037557017544349</v>
+        <v>1.010993002141734</v>
       </c>
       <c r="L4">
-        <v>1.028343737488784</v>
+        <v>1.004444730626209</v>
       </c>
       <c r="M4">
-        <v>1.045553872913479</v>
+        <v>1.018306389050769</v>
       </c>
       <c r="N4">
-        <v>1.014018644641665</v>
+        <v>1.005801514177545</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025851340542747</v>
+        <v>0.9880456283006798</v>
       </c>
       <c r="D5">
-        <v>1.035363612640163</v>
+        <v>1.002180569443682</v>
       </c>
       <c r="E5">
-        <v>1.026098435507715</v>
+        <v>0.9954235890176389</v>
       </c>
       <c r="F5">
-        <v>1.043398572538337</v>
+        <v>1.009678403335254</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026633232787293</v>
+        <v>1.045823604755389</v>
       </c>
       <c r="J5">
-        <v>1.030333959015028</v>
+        <v>1.007296305923651</v>
       </c>
       <c r="K5">
-        <v>1.037797375573707</v>
+        <v>1.012028806484005</v>
       </c>
       <c r="L5">
-        <v>1.028555370856397</v>
+        <v>1.005351567276219</v>
       </c>
       <c r="M5">
-        <v>1.045812598255217</v>
+        <v>1.019439698928311</v>
       </c>
       <c r="N5">
-        <v>1.014090266791144</v>
+        <v>1.006119211495956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025903316736159</v>
+        <v>0.9882819739583106</v>
       </c>
       <c r="D6">
-        <v>1.035412799769255</v>
+        <v>1.002393794285929</v>
       </c>
       <c r="E6">
-        <v>1.026142879041402</v>
+        <v>0.9956154022474127</v>
       </c>
       <c r="F6">
-        <v>1.04345076780507</v>
+        <v>1.009907648491251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02663165577525</v>
+        <v>1.045836782814</v>
       </c>
       <c r="J6">
-        <v>1.03036931980382</v>
+        <v>1.007448827186028</v>
       </c>
       <c r="K6">
-        <v>1.037837730331142</v>
+        <v>1.012201951611915</v>
       </c>
       <c r="L6">
-        <v>1.028590904614558</v>
+        <v>1.005503168429424</v>
       </c>
       <c r="M6">
-        <v>1.045856029844551</v>
+        <v>1.019629100840382</v>
       </c>
       <c r="N6">
-        <v>1.014102288740146</v>
+        <v>1.006172299286548</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02554594282421</v>
+        <v>0.9866508177001334</v>
       </c>
       <c r="D7">
-        <v>1.035074613981707</v>
+        <v>1.000922589394786</v>
       </c>
       <c r="E7">
-        <v>1.025837324345739</v>
+        <v>0.9942921112749634</v>
       </c>
       <c r="F7">
-        <v>1.043091855100463</v>
+        <v>1.00832558979295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026642303601218</v>
+        <v>1.045744279567474</v>
       </c>
       <c r="J7">
-        <v>1.03012615502748</v>
+        <v>1.006396054485713</v>
       </c>
       <c r="K7">
-        <v>1.037560229381878</v>
+        <v>1.011006894588005</v>
       </c>
       <c r="L7">
-        <v>1.028346565372095</v>
+        <v>1.004456892368665</v>
       </c>
       <c r="M7">
-        <v>1.045557330652883</v>
+        <v>1.018321592088387</v>
       </c>
       <c r="N7">
-        <v>1.014019601909893</v>
+        <v>1.005805776446624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024052775591263</v>
+        <v>0.9796779791559425</v>
       </c>
       <c r="D8">
-        <v>1.033661903823305</v>
+        <v>0.9946435686179298</v>
       </c>
       <c r="E8">
-        <v>1.024561337479824</v>
+        <v>0.9886489493845778</v>
       </c>
       <c r="F8">
-        <v>1.041591454900157</v>
+        <v>1.00156556204798</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026681933373675</v>
+        <v>1.045310270745714</v>
       </c>
       <c r="J8">
-        <v>1.029109333533941</v>
+        <v>1.001892564693456</v>
       </c>
       <c r="K8">
-        <v>1.036399971033078</v>
+        <v>1.005896588383888</v>
       </c>
       <c r="L8">
-        <v>1.027325206722249</v>
+        <v>0.9999849053285822</v>
       </c>
       <c r="M8">
-        <v>1.044307438640736</v>
+        <v>1.012724368480858</v>
       </c>
       <c r="N8">
-        <v>1.013673445819455</v>
+        <v>1.004235781107289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021423820390545</v>
+        <v>0.9667505795302408</v>
       </c>
       <c r="D9">
-        <v>1.03117572823494</v>
+        <v>0.9830457858421474</v>
       </c>
       <c r="E9">
-        <v>1.022317341476179</v>
+        <v>0.9782439712758787</v>
       </c>
       <c r="F9">
-        <v>1.038946793612392</v>
+        <v>0.9890500780500038</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026733447910888</v>
+        <v>1.044363595710445</v>
       </c>
       <c r="J9">
-        <v>1.027315923508231</v>
+        <v>0.9935346804051736</v>
       </c>
       <c r="K9">
-        <v>1.034354124138841</v>
+        <v>0.996420056020105</v>
       </c>
       <c r="L9">
-        <v>1.025525209549109</v>
+        <v>0.9917001709345715</v>
       </c>
       <c r="M9">
-        <v>1.04209978844082</v>
+        <v>1.002323344001957</v>
       </c>
       <c r="N9">
-        <v>1.013061448223862</v>
+        <v>1.001314695507788</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019672605538829</v>
+        <v>0.9576428679370944</v>
       </c>
       <c r="D10">
-        <v>1.029520418090541</v>
+        <v>0.974908956325454</v>
       </c>
       <c r="E10">
-        <v>1.020824337628465</v>
+        <v>0.9709572416503437</v>
       </c>
       <c r="F10">
-        <v>1.037183170966654</v>
+        <v>0.9802506050314108</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026755531297127</v>
+        <v>1.043606564373641</v>
       </c>
       <c r="J10">
-        <v>1.026119201232412</v>
+        <v>0.9876440032933675</v>
       </c>
       <c r="K10">
-        <v>1.032989328321303</v>
+        <v>0.9897465129228212</v>
       </c>
       <c r="L10">
-        <v>1.024325047967675</v>
+        <v>0.9858714473250307</v>
       </c>
       <c r="M10">
-        <v>1.040624547530097</v>
+        <v>0.9949858374200775</v>
       </c>
       <c r="N10">
-        <v>1.012652090106604</v>
+        <v>0.9992516070426853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018914634472028</v>
+        <v>0.9535684089516373</v>
       </c>
       <c r="D11">
-        <v>1.028804154604117</v>
+        <v>0.9712780927693937</v>
       </c>
       <c r="E11">
-        <v>1.020178559035151</v>
+        <v>0.9677090628967141</v>
       </c>
       <c r="F11">
-        <v>1.036419379170392</v>
+        <v>0.976319828391334</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026762197512319</v>
+        <v>1.043247977466223</v>
       </c>
       <c r="J11">
-        <v>1.025600739100134</v>
+        <v>0.9850090244808152</v>
       </c>
       <c r="K11">
-        <v>1.032398140962829</v>
+        <v>0.98676277934912</v>
       </c>
       <c r="L11">
-        <v>1.023805323634868</v>
+        <v>0.9832667598098763</v>
       </c>
       <c r="M11">
-        <v>1.039984928713302</v>
+        <v>0.9917025749975054</v>
       </c>
       <c r="N11">
-        <v>1.012474511263634</v>
+        <v>0.9983279072677598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01863313660767</v>
+        <v>0.9520339515814623</v>
       </c>
       <c r="D12">
-        <v>1.02853817666281</v>
+        <v>0.969912192555205</v>
       </c>
       <c r="E12">
-        <v>1.019938793343725</v>
+        <v>0.9664876476355874</v>
       </c>
       <c r="F12">
-        <v>1.036135652849299</v>
+        <v>0.9748404896418239</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026764239446237</v>
+        <v>1.04311006916513</v>
       </c>
       <c r="J12">
-        <v>1.025408117690654</v>
+        <v>0.984016802876522</v>
       </c>
       <c r="K12">
-        <v>1.032178513994378</v>
+        <v>0.9856394567634975</v>
       </c>
       <c r="L12">
-        <v>1.02361226760583</v>
+        <v>0.9822863425691793</v>
       </c>
       <c r="M12">
-        <v>1.039747221068975</v>
+        <v>0.9904661188211467</v>
       </c>
       <c r="N12">
-        <v>1.012408501866185</v>
+        <v>0.9979799676819704</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018693516777726</v>
+        <v>0.9523640726462429</v>
       </c>
       <c r="D13">
-        <v>1.028595226482732</v>
+        <v>0.9702059810441062</v>
       </c>
       <c r="E13">
-        <v>1.019990219140128</v>
+        <v>0.9667503352606454</v>
       </c>
       <c r="F13">
-        <v>1.036196514019644</v>
+        <v>0.9751587047577889</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026763821078379</v>
+        <v>1.043139865742142</v>
       </c>
       <c r="J13">
-        <v>1.025449437520764</v>
+        <v>0.9842302612773736</v>
       </c>
       <c r="K13">
-        <v>1.03222562625342</v>
+        <v>0.9858811088036283</v>
       </c>
       <c r="L13">
-        <v>1.023653679113154</v>
+        <v>0.9824972433231054</v>
       </c>
       <c r="M13">
-        <v>1.039798215811438</v>
+        <v>0.9907321244157455</v>
       </c>
       <c r="N13">
-        <v>1.0124226633105</v>
+        <v>0.9980548254177314</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018891364832479</v>
+        <v>0.9534420074669314</v>
       </c>
       <c r="D14">
-        <v>1.028782167273104</v>
+        <v>0.971165545188729</v>
       </c>
       <c r="E14">
-        <v>1.020158737782921</v>
+        <v>0.9676084098762946</v>
       </c>
       <c r="F14">
-        <v>1.036395926674612</v>
+        <v>0.9761979460382217</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026762375151495</v>
+        <v>1.043236674606085</v>
       </c>
       <c r="J14">
-        <v>1.025584817803023</v>
+        <v>0.9849272869259164</v>
       </c>
       <c r="K14">
-        <v>1.032379987217774</v>
+        <v>0.9866702372768468</v>
       </c>
       <c r="L14">
-        <v>1.023789365713313</v>
+        <v>0.9831859865315546</v>
       </c>
       <c r="M14">
-        <v>1.03996528227031</v>
+        <v>0.991600719935804</v>
       </c>
       <c r="N14">
-        <v>1.012469055900005</v>
+        <v>0.9982992468010131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0190132716528</v>
+        <v>0.9541033298098913</v>
       </c>
       <c r="D15">
-        <v>1.028897357484743</v>
+        <v>0.9717544466588748</v>
       </c>
       <c r="E15">
-        <v>1.02026258161799</v>
+        <v>0.9681350948481279</v>
       </c>
       <c r="F15">
-        <v>1.036518788728925</v>
+        <v>0.9768356665142599</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026761426759896</v>
+        <v>1.043295694441732</v>
       </c>
       <c r="J15">
-        <v>1.025668224553338</v>
+        <v>0.985354936636471</v>
       </c>
       <c r="K15">
-        <v>1.032475089631751</v>
+        <v>0.9871544253058513</v>
       </c>
       <c r="L15">
-        <v>1.023872965733616</v>
+        <v>0.9836086074332192</v>
       </c>
       <c r="M15">
-        <v>1.040068200898373</v>
+        <v>0.9921336196135015</v>
       </c>
       <c r="N15">
-        <v>1.012497633450596</v>
+        <v>0.9984491934253352</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019722916147193</v>
+        <v>0.9579104066631344</v>
       </c>
       <c r="D16">
-        <v>1.029567964569007</v>
+        <v>0.9751475688283184</v>
       </c>
       <c r="E16">
-        <v>1.020867210596486</v>
+        <v>0.9711707762095724</v>
       </c>
       <c r="F16">
-        <v>1.037233858517602</v>
+        <v>0.98050884098444</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026755027943447</v>
+        <v>1.043629706648901</v>
       </c>
       <c r="J16">
-        <v>1.02615360406037</v>
+        <v>0.9878170348652736</v>
       </c>
       <c r="K16">
-        <v>1.033028558777702</v>
+        <v>0.989942476848366</v>
       </c>
       <c r="L16">
-        <v>1.024359539356406</v>
+        <v>0.9860425442453445</v>
       </c>
       <c r="M16">
-        <v>1.040666979436045</v>
+        <v>0.9952014209798514</v>
       </c>
       <c r="N16">
-        <v>1.012663868599999</v>
+        <v>0.9993122472821984</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020168141273774</v>
+        <v>0.9602625431660126</v>
       </c>
       <c r="D17">
-        <v>1.029988751369867</v>
+        <v>0.9772464562137764</v>
       </c>
       <c r="E17">
-        <v>1.021246666148032</v>
+        <v>0.9730494553990825</v>
       </c>
       <c r="F17">
-        <v>1.037682367491234</v>
+        <v>0.9827798626624374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026750239424003</v>
+        <v>1.043830921626379</v>
       </c>
       <c r="J17">
-        <v>1.026457996298825</v>
+        <v>0.9893383295264587</v>
       </c>
       <c r="K17">
-        <v>1.033375675736895</v>
+        <v>0.9916655566505085</v>
       </c>
       <c r="L17">
-        <v>1.024664741493466</v>
+        <v>0.9875471234294876</v>
       </c>
       <c r="M17">
-        <v>1.041042355191258</v>
+        <v>0.9970967137978805</v>
       </c>
       <c r="N17">
-        <v>1.012768056739419</v>
+        <v>0.9998453015585963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020427864178542</v>
+        <v>0.9616219874286984</v>
       </c>
       <c r="D18">
-        <v>1.030234237147057</v>
+        <v>0.9784604008681926</v>
       </c>
       <c r="E18">
-        <v>1.021468063892147</v>
+        <v>0.9741363530236195</v>
       </c>
       <c r="F18">
-        <v>1.037943962513196</v>
+        <v>0.9840929638113994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026747166876285</v>
+        <v>1.043945322737151</v>
       </c>
       <c r="J18">
-        <v>1.026635516780729</v>
+        <v>0.9902176018905813</v>
       </c>
       <c r="K18">
-        <v>1.033578121812653</v>
+        <v>0.9926615908300188</v>
       </c>
       <c r="L18">
-        <v>1.024842756274537</v>
+        <v>0.9884169779162075</v>
       </c>
       <c r="M18">
-        <v>1.041261225463077</v>
+        <v>0.9981920412555514</v>
       </c>
       <c r="N18">
-        <v>1.012828796651083</v>
+        <v>1.000153312646856</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020516428208068</v>
+        <v>0.9620834394935526</v>
       </c>
       <c r="D19">
-        <v>1.030317949599936</v>
+        <v>0.9788726085972874</v>
       </c>
       <c r="E19">
-        <v>1.021543566298284</v>
+        <v>0.9745054736416568</v>
       </c>
       <c r="F19">
-        <v>1.038033157514037</v>
+        <v>0.9845387724225448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026746071783743</v>
+        <v>1.04398383031451</v>
       </c>
       <c r="J19">
-        <v>1.026696042218418</v>
+        <v>0.9905160652206444</v>
       </c>
       <c r="K19">
-        <v>1.033647147077869</v>
+        <v>0.9929997107729219</v>
       </c>
       <c r="L19">
-        <v>1.024903453966647</v>
+        <v>0.9887122853763564</v>
       </c>
       <c r="M19">
-        <v>1.041335840993055</v>
+        <v>0.9985638235974077</v>
       </c>
       <c r="N19">
-        <v>1.012849502088397</v>
+        <v>1.000257850738053</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020120369672549</v>
+        <v>0.9600114854476166</v>
       </c>
       <c r="D20">
-        <v>1.029943599971018</v>
+        <v>0.977022338405922</v>
       </c>
       <c r="E20">
-        <v>1.02120594715322</v>
+        <v>0.9728488183585615</v>
       </c>
       <c r="F20">
-        <v>1.037634248035736</v>
+        <v>0.9825374060110657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026750782088746</v>
+        <v>1.04380964037122</v>
       </c>
       <c r="J20">
-        <v>1.026425340621756</v>
+        <v>0.9891759496836612</v>
       </c>
       <c r="K20">
-        <v>1.033338435585365</v>
+        <v>0.9914816246197473</v>
       </c>
       <c r="L20">
-        <v>1.024631996656058</v>
+        <v>0.9873865024386413</v>
       </c>
       <c r="M20">
-        <v>1.04100208920608</v>
+        <v>0.9968944249501357</v>
       </c>
       <c r="N20">
-        <v>1.012756881572308</v>
+        <v>0.9997884128248106</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018833102242169</v>
+        <v>0.9531251745147353</v>
       </c>
       <c r="D21">
-        <v>1.028727115824554</v>
+        <v>0.9708834623664728</v>
       </c>
       <c r="E21">
-        <v>1.020109110339748</v>
+        <v>0.9673561473768084</v>
       </c>
       <c r="F21">
-        <v>1.036337205173399</v>
+        <v>0.9758924572643245</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026762812919656</v>
+        <v>1.04320829766019</v>
       </c>
       <c r="J21">
-        <v>1.025544952832684</v>
+        <v>0.9847224090443102</v>
       </c>
       <c r="K21">
-        <v>1.032334532693093</v>
+        <v>0.9864382811792273</v>
       </c>
       <c r="L21">
-        <v>1.023749409594542</v>
+        <v>0.9829835320856962</v>
       </c>
       <c r="M21">
-        <v>1.039916088806156</v>
+        <v>0.9913454151151817</v>
       </c>
       <c r="N21">
-        <v>1.012455395783456</v>
+        <v>0.9982274066215002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018024013616803</v>
+        <v>0.9486730763185555</v>
       </c>
       <c r="D22">
-        <v>1.027962693101828</v>
+        <v>0.9669233832105955</v>
       </c>
       <c r="E22">
-        <v>1.019420094225628</v>
+        <v>0.9638159776918921</v>
       </c>
       <c r="F22">
-        <v>1.035521586759796</v>
+        <v>0.9716023532994164</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026767865498438</v>
+        <v>1.042802891222829</v>
       </c>
       <c r="J22">
-        <v>1.024991177845222</v>
+        <v>0.9818438845130099</v>
       </c>
       <c r="K22">
-        <v>1.031703144176385</v>
+        <v>0.9831798600337108</v>
       </c>
       <c r="L22">
-        <v>1.023194449864697</v>
+        <v>0.9801400200710985</v>
       </c>
       <c r="M22">
-        <v>1.039232555522422</v>
+        <v>0.9877581738647718</v>
       </c>
       <c r="N22">
-        <v>1.012265557879299</v>
+        <v>0.9972178048606533</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018452901855319</v>
+        <v>0.951045312943536</v>
       </c>
       <c r="D23">
-        <v>1.028367887513426</v>
+        <v>0.9690325898962938</v>
       </c>
       <c r="E23">
-        <v>1.019785297080056</v>
+        <v>0.9657012390328306</v>
       </c>
       <c r="F23">
-        <v>1.03595397261026</v>
+        <v>0.9738876653810891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026765424811429</v>
+        <v>1.043020425778312</v>
       </c>
       <c r="J23">
-        <v>1.025284767350189</v>
+        <v>0.9833775668852588</v>
       </c>
       <c r="K23">
-        <v>1.032037873767386</v>
+        <v>0.9849158241668612</v>
       </c>
       <c r="L23">
-        <v>1.023488648617408</v>
+        <v>0.9816548250516706</v>
       </c>
       <c r="M23">
-        <v>1.039594977886888</v>
+        <v>0.9896695080467475</v>
       </c>
       <c r="N23">
-        <v>1.012366221264578</v>
+        <v>0.9977557785548569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020141955507828</v>
+        <v>0.960124966204169</v>
       </c>
       <c r="D24">
-        <v>1.029964001796204</v>
+        <v>0.9771236393499406</v>
       </c>
       <c r="E24">
-        <v>1.021224346104748</v>
+        <v>0.9729395050492765</v>
       </c>
       <c r="F24">
-        <v>1.037655991185263</v>
+        <v>0.9826469973348469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026750537745551</v>
+        <v>1.043819265608155</v>
       </c>
       <c r="J24">
-        <v>1.026440096397809</v>
+        <v>0.9892493470335814</v>
       </c>
       <c r="K24">
-        <v>1.033355262872663</v>
+        <v>0.9915647633617586</v>
       </c>
       <c r="L24">
-        <v>1.024646792652193</v>
+        <v>0.9874591040155916</v>
       </c>
       <c r="M24">
-        <v>1.041020283918662</v>
+        <v>0.9969858619139574</v>
       </c>
       <c r="N24">
-        <v>1.012761931245851</v>
+        <v>0.9998141273689146</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022103213693989</v>
+        <v>0.9701742827982341</v>
       </c>
       <c r="D25">
-        <v>1.031818086138188</v>
+        <v>0.9861118493525045</v>
       </c>
       <c r="E25">
-        <v>1.022896940423851</v>
+        <v>0.9809924809879499</v>
       </c>
       <c r="F25">
-        <v>1.039630592632542</v>
+        <v>0.9923620604394973</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026722295101752</v>
+        <v>1.044630240882913</v>
       </c>
       <c r="J25">
-        <v>1.027779758693215</v>
+        <v>0.9957488490368267</v>
       </c>
       <c r="K25">
-        <v>1.034883182254064</v>
+        <v>0.9989296561100086</v>
       </c>
       <c r="L25">
-        <v>1.025990580256047</v>
+        <v>0.9938932093014644</v>
       </c>
       <c r="M25">
-        <v>1.042671131915277</v>
+        <v>1.005080114155971</v>
       </c>
       <c r="N25">
-        <v>1.013219904122195</v>
+        <v>1.00208933828413</v>
       </c>
     </row>
   </sheetData>
